--- a/src/Excel/CambioTasaCTS.xlsx
+++ b/src/Excel/CambioTasaCTS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>usuario</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>6 mar. 2023, 11:05:48</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 12:04:45</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 13:36:48</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 15:00:06</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 15:01:59</t>
   </si>
 </sst>
 </file>
@@ -457,7 +469,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
